--- a/results/During 1st sem without tuition_cv_3.xlsx
+++ b/results/During 1st sem without tuition_cv_3.xlsx
@@ -67,22 +67,22 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>{'max_depth': 5, 'min_samples_split': 10}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'sqrt', 'n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.05, 'num_leaves': 31}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'n_estimators': 50}</t>
+    <t>{'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20, 'min_samples_split': 15, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 100, 'num_leaves': 31}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.2, 'max_depth': 3, 'n_estimators': 50}</t>
   </si>
   <si>
     <t>DecisionTreeClassifier(max_depth=5, min_samples_split=10)</t>
   </si>
   <si>
-    <t>RandomForestClassifier(n_estimators=200)</t>
+    <t>RandomForestClassifier(max_depth=20, min_samples_split=15, n_estimators=300)</t>
   </si>
   <si>
     <t>LGBMClassifier(learning_rate=0.05)</t>
@@ -93,7 +93,7 @@
               colsample_bytree=None, device=None, early_stopping_rounds=None,
               enable_categorical=True, eval_metric=None, feature_types=None,
               gamma=None, grow_policy=None, importance_type=None,
-              interaction_constraints=None, learning_rate=None, max_bin=None,
+              interaction_constraints=None, learning_rate=0.2, max_bin=None,
               max_cat_threshold=None, max_cat_to_onehot=None,
               max_delta_step=None, max_depth=3, max_leaves=None,
               min_child_weight=None, missing=nan, monotone_constraints=None,
@@ -105,16 +105,16 @@
  [ 87 362]]</t>
   </si>
   <si>
-    <t>[[186  91]
- [ 85 364]]</t>
+    <t>[[187  90]
+ [ 79 370]]</t>
   </si>
   <si>
     <t>[[190  87]
  [ 79 370]]</t>
   </si>
   <si>
-    <t>[[192  85]
- [ 80 369]]</t>
+    <t>[[191  86]
+ [ 78 371]]</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.7551617490223961</v>
+        <v>0.7548169214361892</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -557,7 +557,7 @@
         <v>0.7515316028552195</v>
       </c>
       <c r="M2">
-        <v>0.9183807373046875</v>
+        <v>14.93812298774719</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -568,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.7627408460718094</v>
+        <v>0.7734103566773315</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -577,28 +577,28 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I3">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J3">
-        <v>0.7566364754556637</v>
+        <v>0.7656821716526314</v>
       </c>
       <c r="K3">
-        <v>0.7575757575757576</v>
+        <v>0.7672176308539945</v>
       </c>
       <c r="L3">
-        <v>0.7570531227917702</v>
+        <v>0.7662682725664163</v>
       </c>
       <c r="M3">
-        <v>29.18571043014526</v>
+        <v>612.4709684848785</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -639,7 +639,7 @@
         <v>0.7706842625566286</v>
       </c>
       <c r="M4">
-        <v>8.488213539123535</v>
+        <v>229.6474709510803</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -650,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.772731366275625</v>
+        <v>0.7844448394359522</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -659,28 +659,28 @@
         <v>28</v>
       </c>
       <c r="F5">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J5">
-        <v>0.7719910951965888</v>
+        <v>0.7729831513185786</v>
       </c>
       <c r="K5">
-        <v>0.7727272727272727</v>
+        <v>0.7741046831955923</v>
       </c>
       <c r="L5">
-        <v>0.7723215489132377</v>
+        <v>0.7734471027667897</v>
       </c>
       <c r="M5">
-        <v>9.389091730117798</v>
+        <v>297.6617162227631</v>
       </c>
     </row>
   </sheetData>
